--- a/docs/Formulas.xlsx
+++ b/docs/Formulas.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lauki\Documents\Git\redis-lsm-timeseries\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laukikragji/Documents/Git/Personal/redis-lsm-timeseries/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A2F2E-15E6-4800-B6D9-6E1D1A654662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF39C06-FF7B-354F-A928-08247976DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="4704" windowWidth="17280" windowHeight="8964" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
+    <workbookView xWindow="8180" yWindow="5400" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>TagId</t>
   </si>
@@ -37,6 +47,18 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Active threads</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>Response time goes beyond 2000&gt; or we encounter error</t>
   </si>
 </sst>
 </file>
@@ -399,16 +421,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C73E7E-B446-47BB-BF22-4B051FF5EBFB}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -416,7 +438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -453,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -473,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -493,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -513,7 +535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -533,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -557,4 +579,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <f>(B2*1000)/B3</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Formulas.xlsx
+++ b/docs/Formulas.xlsx
@@ -8,14 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laukikragji/Documents/Git/Personal/redis-lsm-timeseries/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF39C06-FF7B-354F-A928-08247976DA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06D4E6-D135-C245-8254-784A2BB38296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="5400" windowWidth="17280" windowHeight="8960" activeTab="1" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$H$24:$N$24</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$L$25:$L$27</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$M$25:$M$27</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$N$25:$N$27</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$L$25:$L$27</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$M$25:$M$27</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$N$25:$N$27</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$L$25:$L$27</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$M$25:$M$27</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$N$25:$N$27</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$L$25:$L$27</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$M$25:$M$27</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$N$25:$N$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>TagId</t>
   </si>
@@ -59,13 +90,40 @@
   </si>
   <si>
     <t>Response time goes beyond 2000&gt; or we encounter error</t>
+  </si>
+  <si>
+    <t>6/2=3</t>
+  </si>
+  <si>
+    <t>Required TPS</t>
+  </si>
+  <si>
+    <t>Number of Threads</t>
+  </si>
+  <si>
+    <t>Tags/Req</t>
+  </si>
+  <si>
+    <t>Sample/Req</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instances </t>
+  </si>
+  <si>
+    <t>Shards</t>
+  </si>
+  <si>
+    <t>Client/Instance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,13 +139,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,14 +169,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +667,7 @@
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,7 +686,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -622,7 +695,202 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>(B6*B7)/1000</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>200</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2000</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="8:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="H26" s="2">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3</v>
+      </c>
+      <c r="K26" s="2">
+        <v>200</v>
+      </c>
+      <c r="L26" s="2">
+        <v>20</v>
+      </c>
+      <c r="M26" s="2">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="H27" s="2">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3</v>
+      </c>
+      <c r="K27" s="2">
+        <v>200</v>
+      </c>
+      <c r="L27" s="2">
+        <v>200</v>
+      </c>
+      <c r="M27" s="2">
+        <v>10</v>
+      </c>
+      <c r="N27" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>200</v>
+      </c>
+      <c r="L28">
+        <v>2000</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>100</v>
+      </c>
+      <c r="N29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="8:14" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
+        <v>200</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="H24:N24" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K25:N28">
+    <sortCondition ref="K24:K28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Formulas.xlsx
+++ b/docs/Formulas.xlsx
@@ -8,44 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laukikragji/Documents/Git/Personal/redis-lsm-timeseries/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06D4E6-D135-C245-8254-784A2BB38296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A5BA9A-8D55-8F4C-AF22-B3A263B79C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19680" activeTab="1" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{5C38A616-3E13-4B6E-8DD4-4DE4002EE992}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$H$24:$N$24</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$L$25:$L$27</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$M$25:$M$27</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$N$25:$N$27</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$L$25:$L$27</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$M$25:$M$27</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet2!$N$25:$N$27</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(Sheet2!$L$24,Sheet2!$N$24)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">(Sheet2!$L$25,Sheet2!$N$25)</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">(Sheet2!$L$26,Sheet2!$N$26)</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Sheet2!$L$27,Sheet2!$N$27)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$L$25:$L$27</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$M$25:$M$27</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$N$25:$N$27</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$L$25:$L$27</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$M$25:$M$27</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$N$25:$N$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$G$24:$O$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>TagId</t>
   </si>
@@ -117,13 +89,46 @@
   </si>
   <si>
     <t>Client/Instance</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Set TPS</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Adding more clients for redis is not improving the performance als redis tops at 1K/Sec max</t>
+  </si>
+  <si>
+    <t>We need more redis clients not redis instances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis went upto 1.5K/Sec commands </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mac </t>
+  </si>
+  <si>
+    <t>Its not moving beyond 1.5K/Sec Think this is cause of the Tag ids are not local any more.</t>
+  </si>
+  <si>
+    <t>Redis BG Save is disabled.</t>
+  </si>
+  <si>
+    <t>2x Clients for coordinator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,25 +144,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,17 +162,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -656,15 +646,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -725,7 +720,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
       </c>
@@ -745,149 +743,403 @@
         <v>12</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>200</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4</v>
+      </c>
+      <c r="K25" s="1">
+        <v>200</v>
+      </c>
+      <c r="L25" s="1">
+        <v>200</v>
+      </c>
+      <c r="M25" s="1">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1">
+        <v>171</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>200</v>
+      </c>
+      <c r="L26">
+        <v>200</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>155</v>
+      </c>
+      <c r="O26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>5</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>200</v>
+      </c>
+      <c r="L27">
+        <v>200</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>150</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="K28">
+        <v>200</v>
+      </c>
+      <c r="L28">
+        <v>200</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>150</v>
+      </c>
+      <c r="O28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <v>200</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>200</v>
+      </c>
+      <c r="L30">
+        <v>200</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>130</v>
+      </c>
+      <c r="O30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>200</v>
+      </c>
+      <c r="L31">
+        <v>200</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>130</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>200</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>100</v>
+      </c>
+      <c r="N32">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>200</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="M33">
+        <v>10</v>
+      </c>
+      <c r="N33">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>200</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>101</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>200</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <v>2000</v>
       </c>
-      <c r="N25">
+      <c r="N35">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="8:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="H26" s="2">
-        <v>3</v>
-      </c>
-      <c r="I26" s="2">
-        <v>3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3</v>
-      </c>
-      <c r="K26" s="2">
-        <v>200</v>
-      </c>
-      <c r="L26" s="2">
+    <row r="36" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>200</v>
+      </c>
+      <c r="L36">
         <v>20</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M36">
         <v>100</v>
       </c>
-      <c r="N26" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="8:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="H27" s="2">
-        <v>3</v>
-      </c>
-      <c r="I27" s="2">
-        <v>3</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2">
-        <v>200</v>
-      </c>
-      <c r="L27" s="2">
-        <v>200</v>
-      </c>
-      <c r="M27" s="2">
-        <v>10</v>
-      </c>
-      <c r="N27" s="2">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>200</v>
-      </c>
-      <c r="L28">
+      <c r="N36">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>200</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37">
+        <v>100</v>
+      </c>
+      <c r="N37">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+      <c r="K38">
+        <v>200</v>
+      </c>
+      <c r="L38">
         <v>2000</v>
       </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>200</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>100</v>
-      </c>
-      <c r="N29">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="8:14" x14ac:dyDescent="0.2">
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>200</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>100</v>
-      </c>
-      <c r="N30">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="H24:N24" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}"/>
+  <autoFilter ref="G24:O24" xr:uid="{ED4ED677-F3F7-D949-9433-68F66723928D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G25:O38">
+      <sortCondition descending="1" ref="N24:N38"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K25:N28">
     <sortCondition ref="K24:K28"/>
   </sortState>
